--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25455" windowHeight="10530"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>Plan</t>
   </si>
@@ -42,6 +42,15 @@
   <si>
     <t>研究apk包下载 Nginx：400</t>
   </si>
+  <si>
+    <t>nginx sock文件 不匹配；Nginx可跳转了，但不能真实下载apk</t>
+  </si>
+  <si>
+    <t>apk打包，签名，多渠道</t>
+  </si>
+  <si>
+    <t>分析甬润的签名打包过程</t>
+  </si>
 </sst>
 </file>
 
@@ -49,9 +58,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -69,14 +78,120 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -92,115 +207,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,187 +224,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,8 +421,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,21 +502,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -467,45 +515,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -514,10 +523,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -526,133 +535,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,7 +994,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1027,20 +1036,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>43510</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>43511</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>Plan</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>分析甬润的签名打包过程</t>
+  </si>
+  <si>
+    <t>完成整份apk打包分析文档</t>
+  </si>
+  <si>
+    <t>进行apk包下载测试（Nginx400 可能是php中header有问题），进行zabbix文档复制</t>
+  </si>
+  <si>
+    <t>zabbix实战</t>
   </si>
 </sst>
 </file>
@@ -57,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -85,6 +94,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -92,6 +102,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -109,7 +149,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,7 +157,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,29 +195,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,37 +223,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -224,187 +233,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,11 +427,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,56 +524,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -523,10 +532,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,133 +544,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,7 +1003,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1065,12 +1074,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>43511</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -1083,14 +1113,20 @@
         <v>43513</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>43514</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>43515</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1">

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>Plan</t>
   </si>
@@ -58,7 +58,16 @@
     <t>进行apk包下载测试（Nginx400 可能是php中header有问题），进行zabbix文档复制</t>
   </si>
   <si>
-    <t>zabbix实战</t>
+    <t>进行nginx400分析，servername 没有绑定</t>
+  </si>
+  <si>
+    <t>进行路径调整</t>
+  </si>
+  <si>
+    <t>优化重复的代码</t>
+  </si>
+  <si>
+    <t>代码重构？</t>
   </si>
 </sst>
 </file>
@@ -67,9 +76,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,31 +90,123 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,54 +218,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,53 +228,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,37 +242,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,19 +380,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,115 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,39 +433,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -486,17 +462,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,8 +504,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,133 +553,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,7 +1012,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1113,12 +1122,31 @@
         <v>43513</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>43514</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6"/>
+      <c r="C6" t="s">
         <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1126,12 +1154,15 @@
         <v>43515</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>43516</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:1">

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>Plan</t>
   </si>
@@ -64,10 +64,13 @@
     <t>进行路径调整</t>
   </si>
   <si>
-    <t>优化重复的代码</t>
-  </si>
-  <si>
-    <t>代码重构？</t>
+    <t>优化文件路径[.]，测试 上传下载</t>
+  </si>
+  <si>
+    <t>zabbix3.0.25</t>
+  </si>
+  <si>
+    <t>代码重构？【PHP不参与】</t>
   </si>
 </sst>
 </file>
@@ -75,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -90,7 +93,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,16 +122,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,14 +131,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,67 +139,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,6 +153,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -218,16 +214,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,25 +245,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,157 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +436,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,26 +461,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,15 +498,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -533,6 +518,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -541,10 +544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,133 +556,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,7 +1129,6 @@
       <c r="A6" s="1">
         <v>43514</v>
       </c>
-      <c r="B6"/>
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -1149,12 +1151,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>43515</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0.1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1162,7 +1185,7 @@
         <v>43516</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:1">

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="25035" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>Plan</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>代码重构？【PHP不参与】</t>
+  </si>
+  <si>
+    <t>shadowsocks+R-Python.sh</t>
+  </si>
+  <si>
+    <t>zabbix</t>
   </si>
 </sst>
 </file>
@@ -78,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,6 +98,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -100,7 +121,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,7 +129,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,7 +159,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,76 +167,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,7 +183,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,8 +196,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,25 +251,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,55 +365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,97 +377,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,6 +442,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,17 +495,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,40 +538,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1021,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1180,17 +1186,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>43516</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>43517</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:1">

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25035" windowHeight="8685"/>
+    <workbookView windowWidth="25860" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>Plan</t>
   </si>
@@ -73,10 +73,19 @@
     <t>代码重构？【PHP不参与】</t>
   </si>
   <si>
+    <t>zabbix3.0.25邮件报警</t>
+  </si>
+  <si>
     <t>shadowsocks+R-Python.sh</t>
   </si>
   <si>
     <t>zabbix</t>
+  </si>
+  <si>
+    <t>zabbix4.0.4JavaJMX监控</t>
+  </si>
+  <si>
+    <t>shadowsocks.server测试</t>
   </si>
 </sst>
 </file>
@@ -100,36 +109,121 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,46 +238,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,52 +246,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,187 +260,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,6 +451,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,6 +501,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -471,11 +521,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,21 +543,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -518,30 +551,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +559,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +571,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1021,7 +1030,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1194,10 +1203,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1215,17 +1224,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>43517</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>43518</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:1">

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>Plan</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>shadowsocks.server测试</t>
+  </si>
+  <si>
+    <t>zabbix4.0.4邮件报警 失败，python发邮件成功</t>
+  </si>
+  <si>
+    <t>GitLab安装</t>
   </si>
 </sst>
 </file>
@@ -94,9 +100,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -107,9 +113,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,61 +150,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,9 +166,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,45 +197,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,49 +266,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,13 +422,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,115 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,32 +460,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,31 +514,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,6 +542,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -559,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,7 +1036,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1253,12 +1259,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>43518</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:1">

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>Plan</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>GitLab安装</t>
+  </si>
+  <si>
+    <t>jenkins</t>
+  </si>
+  <si>
+    <t>Sonar内存不足</t>
+  </si>
+  <si>
+    <t>Docker</t>
   </si>
 </sst>
 </file>
@@ -99,9 +108,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -120,13 +129,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -142,6 +144,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -159,99 +236,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,25 +275,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,49 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,103 +437,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,17 +478,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,11 +513,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,8 +546,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +586,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,7 +1045,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1298,14 +1307,41 @@
         <v>43520</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>43521</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>43522</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:1">

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>Plan</t>
   </si>
@@ -100,7 +100,13 @@
     <t>Sonar内存不足</t>
   </si>
   <si>
-    <t>Docker</t>
+    <t>ansible</t>
+  </si>
+  <si>
+    <t>ansible git/pip/yum 安装</t>
+  </si>
+  <si>
+    <t>ansible基本使用</t>
   </si>
 </sst>
 </file>
@@ -108,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -123,7 +129,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,6 +159,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -152,32 +173,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,36 +195,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -235,24 +211,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,19 +281,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,163 +407,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,8 +477,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -481,33 +489,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -524,6 +506,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,8 +543,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,6 +563,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -574,145 +580,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1045,7 +1051,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1336,12 +1342,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>43522</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:1">

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>Plan</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>ansible基本使用</t>
+  </si>
+  <si>
+    <t>ansible 基本使用</t>
+  </si>
+  <si>
+    <t>ansible playbook</t>
+  </si>
+  <si>
+    <t>ansible role编排</t>
+  </si>
+  <si>
+    <t>C7 cacti1.2.2 yum，SMTP QQ邮箱 触发报警失败</t>
   </si>
 </sst>
 </file>
@@ -114,10 +126,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -172,8 +184,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,70 +262,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,9 +277,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,18 +293,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -305,163 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,6 +507,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -506,6 +548,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,45 +576,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -580,10 +592,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,133 +604,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,10 +1060,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1371,60 +1383,248 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>43523</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>43524</v>
       </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1"/>
-    </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>43525</v>
+      </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>43526</v>
+      </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>43527</v>
+      </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>43528</v>
+      </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>43529</v>
+      </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>43530</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1">
+        <v>43531</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1">
+        <v>43532</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1">
+        <v>43533</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1">
+        <v>43534</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1">
+        <v>43535</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1">
+        <v>43536</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1">
+        <v>43537</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1">
+        <v>43538</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1">
+        <v>43539</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1">
+        <v>43540</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1">
+        <v>43541</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1">
+        <v>43542</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1">
+        <v>43543</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1">
+        <v>43544</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1">
+        <v>43545</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1">
+        <v>43546</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1">
+        <v>43547</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1">
+        <v>43548</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1">
+        <v>43549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1">
+        <v>43550</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1">
+        <v>43551</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1">
+        <v>43552</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25860" windowHeight="11520"/>
+    <workbookView windowWidth="23880" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>Plan</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>C7 cacti1.2.2 yum，SMTP QQ邮箱 触发报警失败</t>
+  </si>
+  <si>
+    <t>docker</t>
+  </si>
+  <si>
+    <t>docker安装</t>
+  </si>
+  <si>
+    <t>docker基本使用</t>
   </si>
 </sst>
 </file>
@@ -126,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -141,9 +150,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,7 +263,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -164,21 +271,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,90 +292,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -293,49 +302,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,133 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,13 +496,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,21 +525,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,6 +561,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -561,26 +579,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1444,9 +1453,33 @@
     <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>43525</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:1">

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23880" windowHeight="11160"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>Plan</t>
   </si>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t>docker基本使用</t>
+  </si>
+  <si>
+    <t>监控</t>
+  </si>
+  <si>
+    <t>cacti1.2.2SNMP监控Windows 7</t>
+  </si>
+  <si>
+    <t>zabbix4.0.5py脚本触发邮件报警</t>
   </si>
 </sst>
 </file>
@@ -136,9 +145,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -171,21 +180,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,24 +248,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,7 +281,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,54 +296,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,181 +311,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,8 +523,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,6 +534,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,17 +568,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,23 +597,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,145 +610,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,7 +1081,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1492,9 +1501,33 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>43528</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:1">

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="24150" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>Plan</t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>zabbix4.0.5py脚本触发邮件报警</t>
+  </si>
+  <si>
+    <t>jarpackage</t>
+  </si>
+  <si>
+    <t>修改为三变量</t>
+  </si>
+  <si>
+    <t>修改为-opt格式</t>
   </si>
 </sst>
 </file>
@@ -144,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -172,6 +181,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -180,7 +266,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,21 +288,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -225,82 +304,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -311,37 +320,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,25 +464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,109 +482,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,6 +511,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -522,18 +564,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,47 +603,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -610,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,133 +631,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,7 +1090,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="G33" sqref="G32:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1530,9 +1539,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>43529</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:1">

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>Plan</t>
   </si>
@@ -146,6 +146,15 @@
   </si>
   <si>
     <t>修改为-opt格式</t>
+  </si>
+  <si>
+    <t>支持收尾处理，改为chl</t>
+  </si>
+  <si>
+    <t>进行Opcache、Jumpserver安装 均失败</t>
+  </si>
+  <si>
+    <t>jarsigner</t>
   </si>
 </sst>
 </file>
@@ -154,8 +163,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -174,13 +183,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -205,6 +207,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -213,6 +230,45 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,11 +282,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,75 +319,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -320,49 +329,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,133 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,32 +556,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -603,6 +586,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -619,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,133 +640,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,7 +1099,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G32:G33"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1568,14 +1577,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>43530</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>43531</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:1">

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24150" windowHeight="11010"/>
+    <workbookView windowWidth="21870" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>Plan</t>
   </si>
@@ -155,6 +155,21 @@
   </si>
   <si>
     <t>jarsigner</t>
+  </si>
+  <si>
+    <t>完成jarsiener部分</t>
+  </si>
+  <si>
+    <t>想做py版 失败</t>
+  </si>
+  <si>
+    <t>jumpserver</t>
+  </si>
+  <si>
+    <t>k8s 1.8安装失败</t>
+  </si>
+  <si>
+    <t>C7 jumpserver1.4.8安装</t>
   </si>
 </sst>
 </file>
@@ -162,9 +177,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -183,6 +198,135 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -190,135 +334,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -329,13 +344,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,13 +446,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,151 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,21 +535,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -552,21 +552,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,13 +586,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,6 +609,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -628,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,133 +655,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,8 +1113,8 @@
   <sheetPr/>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1606,17 +1621,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>43531</v>
       </c>
       <c r="B32" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>43532</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:1">

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21870" windowHeight="8310"/>
+    <workbookView windowWidth="17460" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -191,6 +191,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -206,16 +222,94 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,101 +329,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,181 +344,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,47 +541,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,20 +564,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,6 +602,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -643,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,133 +655,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,7 +1114,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>43532</v>
       </c>
@@ -1673,6 +1673,9 @@
         <v>0</v>
       </c>
       <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>0</v>
       </c>
     </row>

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17460" windowHeight="10485"/>
+    <workbookView windowWidth="23520" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>Plan</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>C7 jumpserver1.4.8安装</t>
+  </si>
+  <si>
+    <t>C7 jumpserver1.4.8使用</t>
+  </si>
+  <si>
+    <t>down.mixiu.com HAProxy文档</t>
   </si>
 </sst>
 </file>
@@ -179,13 +185,134 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -199,76 +326,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,59 +340,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -344,79 +350,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,103 +518,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,41 +541,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -605,9 +576,53 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,15 +641,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -643,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,133 +661,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,8 +1119,8 @@
   <sheetPr/>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1689,9 +1695,33 @@
         <v>43534</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>43535</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:1">

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23520" windowHeight="10995"/>
+    <workbookView windowWidth="20160" windowHeight="10680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>Plan</t>
   </si>
@@ -176,6 +176,15 @@
   </si>
   <si>
     <t>down.mixiu.com HAProxy文档</t>
+  </si>
+  <si>
+    <t>整理14 15期文档</t>
+  </si>
+  <si>
+    <t>GFS实验文档</t>
+  </si>
+  <si>
+    <t>cnblogs linuxk文档</t>
   </si>
 </sst>
 </file>
@@ -184,9 +193,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -198,14 +207,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,14 +245,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,7 +329,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,85 +344,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -350,187 +359,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,6 +550,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -555,6 +579,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,30 +642,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -617,30 +650,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -649,10 +658,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,133 +670,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,8 +1128,8 @@
   <sheetPr/>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1724,9 +1733,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>43536</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:1">

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>Plan</t>
   </si>
@@ -185,6 +185,15 @@
   </si>
   <si>
     <t>cnblogs linuxk文档</t>
+  </si>
+  <si>
+    <t>整理mongodb文档</t>
+  </si>
+  <si>
+    <t>TTLSA运维生存时间版文档</t>
+  </si>
+  <si>
+    <t>mongodb4.0.6实验 linux-node2失败</t>
   </si>
 </sst>
 </file>
@@ -221,8 +230,31 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,20 +276,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -266,15 +284,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -288,17 +299,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,17 +323,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,14 +358,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -359,6 +368,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -371,175 +482,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,45 +559,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -616,6 +586,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -627,6 +612,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,8 +654,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,10 +667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,130 +682,130 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,7 +1138,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1762,9 +1771,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>43537</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:1">

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>Plan</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>mongodb4.0.6实验 linux-node2失败</t>
+  </si>
+  <si>
+    <t>翻阅docker.gitbook</t>
+  </si>
+  <si>
+    <t>无成果</t>
   </si>
 </sst>
 </file>
@@ -201,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -216,6 +222,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -223,7 +236,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,8 +265,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,8 +297,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,9 +342,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,68 +357,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,187 +374,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,6 +565,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -601,6 +631,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -616,21 +657,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -639,26 +665,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -667,145 +673,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1138,7 +1144,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1800,9 +1806,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>43538</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:1">

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20160" windowHeight="10680"/>
+    <workbookView windowWidth="21990" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>Plan</t>
   </si>
@@ -200,6 +200,27 @@
   </si>
   <si>
     <t>无成果</t>
+  </si>
+  <si>
+    <t>文档</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>openstack 文档</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openstack </t>
+  </si>
+  <si>
+    <t>rocky yum</t>
+  </si>
+  <si>
+    <t>rocky 故障</t>
+  </si>
+  <si>
+    <t>rocky重做</t>
   </si>
 </sst>
 </file>
@@ -208,9 +229,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -228,6 +249,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -235,10 +279,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,7 +304,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,39 +349,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,23 +373,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,31 +395,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,151 +551,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,15 +586,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -601,21 +613,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -627,6 +624,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,11 +663,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,10 +694,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,133 +706,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1144,7 +1165,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1835,9 +1856,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>43539</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -1850,24 +1895,102 @@
         <v>43541</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>43542</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>43543</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>43544</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>43545</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:1">

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21990" windowHeight="10800"/>
+    <workbookView windowWidth="23085" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>Plan</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t>rocky重做</t>
+  </si>
+  <si>
+    <t>到网络之前</t>
+  </si>
+  <si>
+    <t>看书？</t>
   </si>
 </sst>
 </file>
@@ -229,9 +235,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -243,15 +249,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,56 +271,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,14 +301,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,6 +352,45 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -395,187 +401,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,6 +592,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -604,11 +619,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,15 +675,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -648,41 +684,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,10 +700,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,133 +712,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1165,7 +1171,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1982,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>43545</v>
       </c>
@@ -1992,10 +1998,31 @@
       <c r="C46" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="1">
         <v>43546</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:1">

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>Plan</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t>看书？</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>sleep</t>
   </si>
 </sst>
 </file>
@@ -245,6 +251,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,14 +284,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,8 +329,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,15 +346,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,21 +382,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -371,22 +392,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,187 +407,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,6 +611,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -619,17 +640,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,17 +660,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,22 +684,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,10 +706,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,133 +718,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1171,7 +1177,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2017,12 +2023,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>43546</v>
       </c>
       <c r="B47" t="s">
         <v>70</v>
+      </c>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:1">

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23085" windowHeight="10440"/>
+    <workbookView windowWidth="16770" windowHeight="11070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>Plan</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>sleep</t>
+  </si>
+  <si>
+    <t>分析杭州就业市场</t>
   </si>
 </sst>
 </file>
@@ -240,10 +243,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -284,17 +287,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -307,9 +302,40 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,14 +355,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -346,14 +364,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,29 +400,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -407,31 +410,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,151 +572,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,6 +609,50 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,35 +687,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -683,21 +701,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -706,145 +709,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1177,7 +1180,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2062,9 +2065,12 @@
         <v>43548</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>43549</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:1">

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16770" windowHeight="11070"/>
+    <workbookView windowWidth="18945" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>Plan</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>分析杭州就业市场</t>
+  </si>
+  <si>
+    <t>15-20</t>
+  </si>
+  <si>
+    <t>装机4台</t>
   </si>
 </sst>
 </file>
@@ -244,9 +250,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -254,20 +260,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,7 +279,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,9 +292,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,9 +307,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,6 +330,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -355,8 +353,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,22 +363,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,6 +384,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -410,12 +416,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -428,7 +560,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,157 +584,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,6 +614,71 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -636,71 +707,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -709,10 +715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,133 +727,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1179,8 +1185,8 @@
   <sheetPr/>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2065,12 +2071,33 @@
         <v>43548</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>43549</v>
       </c>
       <c r="B50" t="s">
         <v>73</v>
+      </c>
+      <c r="C50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:1">

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18945" windowHeight="11835"/>
+    <workbookView windowWidth="19410" windowHeight="11340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>Plan</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>装机4台</t>
+  </si>
+  <si>
+    <t>CMDB内容学习</t>
+  </si>
+  <si>
+    <t>14-22</t>
   </si>
 </sst>
 </file>
@@ -250,9 +256,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -260,6 +266,28 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,21 +307,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,15 +329,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,6 +361,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -353,9 +384,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,17 +399,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,21 +412,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -416,13 +422,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,25 +548,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,139 +584,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,24 +618,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,6 +632,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,13 +675,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,15 +713,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -715,10 +721,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,133 +733,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1185,8 +1191,8 @@
   <sheetPr/>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2100,9 +2106,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>43550</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:1">

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="11340"/>
+    <workbookView windowWidth="26670" windowHeight="11340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>Plan</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>14-22</t>
+  </si>
+  <si>
+    <t>结课项目设计</t>
+  </si>
+  <si>
+    <t>架构图</t>
   </si>
 </sst>
 </file>
@@ -255,8 +261,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -276,16 +282,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,7 +336,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,14 +385,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,29 +413,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,37 +434,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,139 +590,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,6 +619,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -636,11 +666,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,36 +711,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -698,21 +719,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -721,10 +727,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,130 +739,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1192,7 +1198,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2135,9 +2141,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>43551</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:1">

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26670" windowHeight="11340"/>
+    <workbookView windowWidth="20475" windowHeight="11340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>Plan</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>架构图</t>
+  </si>
+  <si>
+    <t>cobbler搭建</t>
+  </si>
+  <si>
+    <t>saltstack复习</t>
   </si>
 </sst>
 </file>
@@ -261,10 +267,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -276,14 +282,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,39 +311,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,30 +328,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,11 +342,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -413,7 +381,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,187 +434,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,41 +625,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -681,6 +652,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -692,6 +672,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,6 +714,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -727,10 +733,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -739,133 +745,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1195,10 +1201,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2170,14 +2176,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
         <v>43552</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>43553</v>
+      </c>
+      <c r="B54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -2190,9 +2232,6 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="1"/>
-    </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1"/>
     </row>
@@ -2215,7 +2254,154 @@
       <c r="A64" s="1"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="1"/>
+      <c r="A65" s="1">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1">
+        <v>43560</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1">
+        <v>43563</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1">
+        <v>43564</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1">
+        <v>43565</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1">
+        <v>43566</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1">
+        <v>43567</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="1">
+        <v>43569</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1">
+        <v>43571</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1">
+        <v>43573</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1">
+        <v>43574</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1">
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1">
+        <v>43576</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1">
+        <v>43577</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1">
+        <v>43578</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1">
+        <v>43579</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1">
+        <v>43580</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1">
+        <v>43581</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1">
+        <v>43582</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1">
+        <v>43583</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1">
+        <v>43584</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1">
+        <v>43585</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/做人做事奋斗成长经验/每日工作状态等级表.xlsx
+++ b/做人做事奋斗成长经验/每日工作状态等级表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20475" windowHeight="11340"/>
+    <workbookView windowWidth="22140" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
   <si>
     <t>Plan</t>
   </si>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t>saltstack复习</t>
+  </si>
+  <si>
+    <t>saltstack init</t>
+  </si>
+  <si>
+    <t>saltstack module</t>
   </si>
 </sst>
 </file>
@@ -267,9 +273,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -278,6 +284,37 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,39 +348,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,15 +407,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,21 +430,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -434,25 +440,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,157 +602,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,6 +631,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -656,7 +712,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,56 +731,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -733,10 +739,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,141 +751,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1203,8 +1212,8 @@
   <sheetPr/>
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2253,14 +2262,50 @@
     <row r="64" spans="1:1">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>43556</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>43557</v>
+      </c>
+      <c r="B66" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:1">
